--- a/RaceWebScraper/data/LigaOCRA/5 - LionRace-NavasdelRey-2024.xlsx
+++ b/RaceWebScraper/data/LigaOCRA/5 - LionRace-NavasdelRey-2024.xlsx
@@ -537,7 +537,7 @@
         <v>0.04472222222222222</v>
       </c>
       <c r="G3" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
@@ -570,7 +570,7 @@
         <v>0.04766203703703704</v>
       </c>
       <c r="G4" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -603,7 +603,7 @@
         <v>0.04784722222222222</v>
       </c>
       <c r="G5" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -636,7 +636,7 @@
         <v>0.0481712962962963</v>
       </c>
       <c r="G6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -669,7 +669,7 @@
         <v>0.05127314814814815</v>
       </c>
       <c r="G7" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -702,7 +702,7 @@
         <v>0.06175925925925926</v>
       </c>
       <c r="G8" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -735,7 +735,7 @@
         <v>0.06246527777777778</v>
       </c>
       <c r="G9" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -768,7 +768,7 @@
         <v>0.06287037037037037</v>
       </c>
       <c r="G10" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -801,7 +801,7 @@
         <v>0.06289351851851852</v>
       </c>
       <c r="G11" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -834,7 +834,7 @@
         <v>0.06496527777777777</v>
       </c>
       <c r="G12" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -863,7 +863,7 @@
         <v>0.08366898148148148</v>
       </c>
       <c r="G13" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -894,7 +894,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>Descalificado</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -929,7 +929,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>Descalificado</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -962,11 +962,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>0.04400462962962963</v>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -995,11 +997,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F17" s="2" t="n">
-        <v>0.04496527777777778</v>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G17" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1028,11 +1032,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F18" s="2" t="n">
-        <v>0.04501157407407407</v>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G18" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1061,11 +1067,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F19" s="2" t="n">
-        <v>0.04520833333333334</v>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1094,11 +1102,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F20" s="2" t="n">
-        <v>0.04682870370370371</v>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G20" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1127,11 +1137,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F21" s="2" t="n">
-        <v>0.04868055555555555</v>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1160,11 +1172,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F22" s="2" t="n">
-        <v>0.04871527777777778</v>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G22" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1193,11 +1207,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F23" s="2" t="n">
-        <v>0.04876157407407408</v>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G23" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1226,11 +1242,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F24" s="2" t="n">
-        <v>0.0497337962962963</v>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G24" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1259,11 +1277,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F25" s="2" t="n">
-        <v>0.05153935185185185</v>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G25" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1292,11 +1312,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F26" s="2" t="n">
-        <v>0.05358796296296296</v>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G26" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1325,11 +1347,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F27" s="2" t="n">
-        <v>0.05528935185185185</v>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G27" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1358,11 +1382,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F28" s="2" t="n">
-        <v>0.06251157407407408</v>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G28" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1391,11 +1417,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F29" s="2" t="n">
-        <v>0.06281249999999999</v>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G29" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1424,11 +1452,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F30" s="2" t="n">
-        <v>0.06587962962962964</v>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G30" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1457,11 +1487,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F31" s="2" t="n">
-        <v>0.09315972222222223</v>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G31" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1490,11 +1522,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F32" s="2" t="n">
-        <v>0.1013194444444444</v>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G32" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1623,7 @@
         <v>0.07741898148148148</v>
       </c>
       <c r="G2" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1622,7 +1656,7 @@
         <v>0.08106481481481481</v>
       </c>
       <c r="G3" t="n">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
@@ -1655,7 +1689,7 @@
         <v>0.08350694444444444</v>
       </c>
       <c r="G4" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -1684,11 +1718,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>0.05690972222222222</v>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1717,11 +1753,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>0.06233796296296296</v>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1750,11 +1788,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>0.06357638888888889</v>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1783,11 +1823,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>0.06696759259259259</v>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1816,11 +1858,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>0.0680787037037037</v>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1849,11 +1893,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>0.07059027777777778</v>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1882,11 +1928,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>0.09010416666666667</v>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1981,7 +2029,7 @@
         <v>0.05442129629629629</v>
       </c>
       <c r="G2" t="n">
-        <v>89.59999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2014,7 +2062,7 @@
         <v>0.05549768518518518</v>
       </c>
       <c r="G3" t="n">
-        <v>87.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -2047,7 +2095,7 @@
         <v>0.06005787037037037</v>
       </c>
       <c r="G4" t="n">
-        <v>81.2</v>
+        <v>90.59999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -2080,7 +2128,7 @@
         <v>0.06015046296296296</v>
       </c>
       <c r="G5" t="n">
-        <v>81.09999999999999</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="6">
@@ -2113,7 +2161,7 @@
         <v>0.06293981481481481</v>
       </c>
       <c r="G6" t="n">
-        <v>77.5</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="7">
@@ -2146,7 +2194,7 @@
         <v>0.06333333333333334</v>
       </c>
       <c r="G7" t="n">
-        <v>77</v>
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -2179,7 +2227,7 @@
         <v>0.06738425925925925</v>
       </c>
       <c r="G8" t="n">
-        <v>72.40000000000001</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="9">
@@ -2212,7 +2260,7 @@
         <v>0.08451388888888889</v>
       </c>
       <c r="G9" t="n">
-        <v>57.7</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -2239,7 +2287,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>Descalificado</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -2270,7 +2318,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>Descalificado</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -2303,11 +2351,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>0.04876157407407408</v>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2332,11 +2382,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>0.05302083333333334</v>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2361,11 +2413,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F14" s="2" t="n">
-        <v>0.05335648148148148</v>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G14" t="n">
-        <v>91.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2390,11 +2444,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F15" s="2" t="n">
-        <v>0.05410879629629629</v>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G15" t="n">
-        <v>90.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2423,11 +2479,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>0.05427083333333333</v>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>89.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2456,11 +2514,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F17" s="2" t="n">
-        <v>0.05449074074074074</v>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G17" t="n">
-        <v>89.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2489,11 +2549,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F18" s="2" t="n">
-        <v>0.05481481481481482</v>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G18" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2522,11 +2584,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F19" s="2" t="n">
-        <v>0.05756944444444444</v>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>84.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2555,11 +2619,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F20" s="2" t="n">
-        <v>0.05835648148148148</v>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G20" t="n">
-        <v>83.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2588,11 +2654,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F21" s="2" t="n">
-        <v>0.05846064814814815</v>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>83.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2621,11 +2689,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F22" s="2" t="n">
-        <v>0.05899305555555556</v>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G22" t="n">
-        <v>82.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2654,11 +2724,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F23" s="2" t="n">
-        <v>0.06</v>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G23" t="n">
-        <v>81.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2687,11 +2759,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F24" s="2" t="n">
-        <v>0.06373842592592592</v>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G24" t="n">
-        <v>76.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2720,11 +2794,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F25" s="2" t="n">
-        <v>0.06454861111111111</v>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G25" t="n">
-        <v>75.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2753,11 +2829,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F26" s="2" t="n">
-        <v>0.06561342592592592</v>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G26" t="n">
-        <v>74.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2786,11 +2864,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F27" s="2" t="n">
-        <v>0.06594907407407408</v>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G27" t="n">
-        <v>73.90000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2819,11 +2899,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F28" s="2" t="n">
-        <v>0.06733796296296296</v>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G28" t="n">
-        <v>72.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2852,11 +2934,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F29" s="2" t="n">
-        <v>0.0690625</v>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G29" t="n">
-        <v>70.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,11 +2969,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F30" s="2" t="n">
-        <v>0.07177083333333334</v>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G30" t="n">
-        <v>67.90000000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2976,11 +3062,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>0.07565972222222223</v>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3009,11 +3097,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>0.08451388888888889</v>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>89.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3038,11 +3128,13 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>0.08575231481481481</v>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Descalificado</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>88.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
